--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>563114.3208818777</v>
+        <v>565403.1784707574</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3786661.858346307</v>
+        <v>3854815.050462388</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10043594.94970761</v>
+        <v>10110391.89330058</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7497356.01307668</v>
+        <v>7443165.153116481</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>135.4420588305822</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>177.6190122320783</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -795,7 +797,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126443</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>22.96189723698673</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -908,10 +910,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>343.8460171065072</v>
+        <v>394.2568381244065</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -1111,7 +1113,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>53.0363847091458</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>304.0074039714629</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.1273880818927</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>22.96189723698673</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>330.2686475180154</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -1382,10 +1384,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.50343547476</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1613,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>377.2932312403813</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>25.35996799970812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>22.96189723698673</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
         <v>30.07448747215907</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>56.47552830345742</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>25.35996799970812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.11592928725618</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2010,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>83.32504548537901</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2083,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>318.9744712724925</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>159.8076064608187</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>73.42695047459898</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>165.6893824661653</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -2330,10 +2332,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>231.0622711834884</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>53.51057079564855</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2473,31 +2475,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>165.6158245190444</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>211.1373924707864</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -2615,13 +2617,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>266.1333084341189</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>39.19550843742099</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>16.06449845204971</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>101.3702069802975</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
@@ -2852,13 +2854,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>359.6064898617827</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>48.75094799137345</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>35.95701122794218</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>336.6327140501647</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>336.7484257707738</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3080,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3199,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>19.85905444009093</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>116.8763835457721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>320.3729681659042</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>25.35996799970812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3430,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>40.95999227663899</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>384.8432471689921</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
@@ -3554,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>1.148524322216981</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3664,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>130.4178928586285</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3752,7 +3754,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>304.0074039714629</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>305.6096491809507</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3901,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>151.6598741163386</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,10 +3982,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>13.0880485838561</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>22.31799190566698</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,22 +4061,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>121.3691205752644</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
         <v>207.9625118881446</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
@@ -4195,7 +4197,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>113.1667354347864</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1323.952461365437</v>
+        <v>1252.232062238354</v>
       </c>
       <c r="C2" t="n">
-        <v>1323.952461365437</v>
+        <v>1252.232062238354</v>
       </c>
       <c r="D2" t="n">
-        <v>1323.952461365437</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E2" t="n">
-        <v>921.3689364819813</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F2" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G2" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
         <v>47.31297010154361</v>
@@ -4328,25 +4330,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1086.634161864653</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1614.445445502115</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O2" t="n">
-        <v>2054.485046394444</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
@@ -4355,25 +4357,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.895775511779</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V2" t="n">
-        <v>2109.895775511779</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W2" t="n">
-        <v>2109.895775511779</v>
+        <v>1828.135914986518</v>
       </c>
       <c r="X2" t="n">
-        <v>1720.443170444836</v>
+        <v>1648.722771317752</v>
       </c>
       <c r="Y2" t="n">
-        <v>1323.952461365437</v>
+        <v>1252.232062238354</v>
       </c>
     </row>
     <row r="3">
@@ -4407,40 +4409,40 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
         <v>1597.21382812373</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C4" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D4" t="n">
-        <v>77.69124027544166</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E4" t="n">
-        <v>77.69124027544166</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F4" t="n">
-        <v>77.69124027544166</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G4" t="n">
-        <v>77.69124027544166</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H4" t="n">
-        <v>77.69124027544166</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
         <v>77.69124027544166</v>
@@ -4510,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V4" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W4" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X4" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y4" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1204.702119267128</v>
+        <v>1579.705190930838</v>
       </c>
       <c r="C5" t="n">
-        <v>811.526617770058</v>
+        <v>1186.529689433769</v>
       </c>
       <c r="D5" t="n">
-        <v>811.526617770058</v>
+        <v>1186.529689433769</v>
       </c>
       <c r="E5" t="n">
-        <v>811.526617770058</v>
+        <v>1186.529689433769</v>
       </c>
       <c r="F5" t="n">
-        <v>394.6321793000358</v>
+        <v>769.6352509637464</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H5" t="n">
         <v>47.31297010154361</v>
@@ -4565,16 +4567,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N5" t="n">
         <v>1577.42141205333</v>
@@ -4604,13 +4606,13 @@
         <v>2365.64850507718</v>
       </c>
       <c r="W5" t="n">
-        <v>1994.649470045468</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X5" t="n">
-        <v>1605.196864978524</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y5" t="n">
-        <v>1605.196864978524</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K6" t="n">
-        <v>160.427952321271</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L6" t="n">
-        <v>643.9940382195842</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M6" t="n">
-        <v>1229.492043226187</v>
+        <v>952.5501211703722</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4689,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="7">
@@ -4747,16 +4749,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U7" t="n">
-        <v>100.8850758683575</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V7" t="n">
         <v>47.31297010154361</v>
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>783.8367236760583</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C8" t="n">
-        <v>783.8367236760583</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D8" t="n">
-        <v>783.8367236760583</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E8" t="n">
-        <v>783.8367236760583</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>783.8367236760583</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>370.6739681640615</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4808,19 +4810,19 @@
         <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>952.2962261735861</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4834,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1886.395173071196</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1544.288363774714</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1173.289328743002</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>783.8367236760583</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>783.8367236760583</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195842</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4926,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4996,16 +4998,16 @@
         <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1252.232062238354</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="C11" t="n">
-        <v>1252.232062238354</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="D11" t="n">
-        <v>866.7909334550213</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E11" t="n">
-        <v>464.2074085715658</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H11" t="n">
         <v>47.31297010154361</v>
@@ -5063,28 +5065,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V11" t="n">
-        <v>2023.725842981463</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W11" t="n">
-        <v>1652.726807949751</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X11" t="n">
-        <v>1652.726807949751</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y11" t="n">
-        <v>1652.726807949751</v>
+        <v>1937.641433863169</v>
       </c>
     </row>
     <row r="12">
@@ -5094,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J12" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K12" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L12" t="n">
-        <v>643.9940382195842</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M12" t="n">
-        <v>1209.14176221491</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.14176221491</v>
+        <v>1814.990048232789</v>
       </c>
       <c r="O12" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P12" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5163,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="13">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>440.488471598613</v>
+        <v>1965.153759365783</v>
       </c>
       <c r="C14" t="n">
-        <v>47.31297010154361</v>
+        <v>1571.978257868714</v>
       </c>
       <c r="D14" t="n">
-        <v>47.31297010154361</v>
+        <v>1571.978257868714</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154361</v>
+        <v>1169.394732985258</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154361</v>
+        <v>752.5002945152361</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H14" t="n">
         <v>47.31297010154361</v>
@@ -5279,22 +5281,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>685.2830347289006</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M14" t="n">
-        <v>864.7645682749193</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N14" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O14" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P14" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q14" t="n">
         <v>2365.64850507718</v>
@@ -5309,19 +5311,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U14" t="n">
-        <v>2340.032375784546</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.925566488064</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W14" t="n">
-        <v>1626.926531456352</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X14" t="n">
-        <v>1237.473926389409</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y14" t="n">
-        <v>840.9832173100099</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F15" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K15" t="n">
-        <v>160.4279523212711</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L15" t="n">
-        <v>643.9940382195844</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M15" t="n">
-        <v>1229.492043226187</v>
+        <v>952.5501211703722</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.506853769802</v>
+        <v>1538.048126176974</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360783</v>
+        <v>2054.568408767956</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5400,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D16" t="n">
-        <v>100.8850758683575</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E16" t="n">
-        <v>100.8850758683575</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F16" t="n">
-        <v>100.8850758683575</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G16" t="n">
-        <v>100.8850758683575</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H16" t="n">
-        <v>100.8850758683575</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I16" t="n">
         <v>77.69124027544166</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>440.488471598613</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="C17" t="n">
-        <v>47.31297010154361</v>
+        <v>1767.966534806683</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154361</v>
+        <v>1382.525406023351</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154361</v>
+        <v>979.9418811398955</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154361</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I17" t="n">
         <v>47.31297010154361</v>
@@ -5516,16 +5518,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O17" t="n">
         <v>2017.461012945658</v>
@@ -5537,28 +5539,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U17" t="n">
-        <v>2340.032375784546</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.925566488064</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="W17" t="n">
-        <v>1626.926531456352</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="X17" t="n">
-        <v>1237.473926389409</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="Y17" t="n">
-        <v>840.9832173100099</v>
+        <v>2161.142036303753</v>
       </c>
     </row>
     <row r="18">
@@ -5601,13 +5603,13 @@
         <v>530.879055999857</v>
       </c>
       <c r="M18" t="n">
-        <v>858.0088487631995</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769802</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360783</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P18" t="n">
         <v>2365.64850507718</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>358.5048953398264</v>
+        <v>287.1127958105228</v>
       </c>
       <c r="C19" t="n">
-        <v>358.5048953398264</v>
+        <v>287.1127958105228</v>
       </c>
       <c r="D19" t="n">
-        <v>202.8717822423411</v>
+        <v>131.4796827130376</v>
       </c>
       <c r="E19" t="n">
         <v>47.31297010154361</v>
@@ -5698,25 +5700,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T19" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U19" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="V19" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="W19" t="n">
-        <v>665.4295905742738</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="X19" t="n">
-        <v>431.3492683572568</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="Y19" t="n">
-        <v>431.3492683572568</v>
+        <v>287.1127958105228</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>522.652680240431</v>
+        <v>1965.153759365783</v>
       </c>
       <c r="C20" t="n">
-        <v>200.4562446116507</v>
+        <v>1965.153759365783</v>
       </c>
       <c r="D20" t="n">
-        <v>200.4562446116507</v>
+        <v>1579.712630582451</v>
       </c>
       <c r="E20" t="n">
-        <v>200.4562446116507</v>
+        <v>1177.129105698996</v>
       </c>
       <c r="F20" t="n">
-        <v>200.4562446116507</v>
+        <v>760.2346672289733</v>
       </c>
       <c r="G20" t="n">
-        <v>200.4562446116507</v>
+        <v>347.0719117169764</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>846.5749518678007</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.196584426364</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129883</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W20" t="n">
-        <v>1709.09074009817</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X20" t="n">
-        <v>1319.638135031227</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y20" t="n">
-        <v>923.1474259518279</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>2167.683390987683</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>387.8830577789238</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="C22" t="n">
-        <v>217.677939844913</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="D22" t="n">
-        <v>217.677939844913</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="E22" t="n">
-        <v>62.11912770411553</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F22" t="n">
-        <v>62.11912770411553</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U22" t="n">
-        <v>963.5661502456679</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V22" t="n">
-        <v>963.5661502456679</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="W22" t="n">
-        <v>963.5661502456679</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="X22" t="n">
-        <v>796.2031376535817</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="Y22" t="n">
-        <v>573.0910764702251</v>
+        <v>447.0615956321544</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1913.597208871598</v>
+        <v>1969.490614168933</v>
       </c>
       <c r="C23" t="n">
-        <v>1913.597208871598</v>
+        <v>1576.315112671863</v>
       </c>
       <c r="D23" t="n">
-        <v>1528.156080088265</v>
+        <v>1190.873983888531</v>
       </c>
       <c r="E23" t="n">
-        <v>1125.57255520481</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F23" t="n">
-        <v>708.6781167347875</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G23" t="n">
-        <v>295.5153612227907</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T23" t="n">
-        <v>2882.455782765193</v>
+        <v>2311.597423465414</v>
       </c>
       <c r="U23" t="n">
-        <v>2626.703053199792</v>
+        <v>2311.597423465414</v>
       </c>
       <c r="V23" t="n">
-        <v>2284.59624390331</v>
+        <v>1969.490614168933</v>
       </c>
       <c r="W23" t="n">
-        <v>1913.597208871598</v>
+        <v>1969.490614168933</v>
       </c>
       <c r="X23" t="n">
-        <v>1913.597208871598</v>
+        <v>1969.490614168933</v>
       </c>
       <c r="Y23" t="n">
-        <v>1913.597208871598</v>
+        <v>1969.490614168933</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C24" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D24" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G24" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5063816922039</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q24" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R24" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S24" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T24" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U24" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V24" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W24" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>387.9573587356116</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C25" t="n">
-        <v>217.7522408016008</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411553</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411553</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411553</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U25" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V25" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W25" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X25" t="n">
-        <v>796.2774386102695</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y25" t="n">
-        <v>573.1653774269129</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>440.488471598613</v>
+        <v>977.8416154369572</v>
       </c>
       <c r="C26" t="n">
-        <v>47.31297010154361</v>
+        <v>584.6661139398877</v>
       </c>
       <c r="D26" t="n">
-        <v>47.31297010154361</v>
+        <v>584.6661139398877</v>
       </c>
       <c r="E26" t="n">
-        <v>47.31297010154361</v>
+        <v>584.6661139398877</v>
       </c>
       <c r="F26" t="n">
-        <v>47.31297010154361</v>
+        <v>584.6661139398877</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H26" t="n">
         <v>47.31297010154361</v>
@@ -6239,7 +6241,7 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O26" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P26" t="n">
         <v>2365.64850507718</v>
@@ -6248,28 +6250,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T26" t="n">
-        <v>2104.154988922119</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U26" t="n">
-        <v>1848.402259356717</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V26" t="n">
-        <v>1506.295450060236</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W26" t="n">
-        <v>1237.473926389409</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="X26" t="n">
-        <v>1237.473926389409</v>
+        <v>1378.336361148354</v>
       </c>
       <c r="Y26" t="n">
-        <v>840.9832173100099</v>
+        <v>1378.336361148354</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L27" t="n">
-        <v>530.8790559998569</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M27" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6348,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.4073954644657</v>
+        <v>1673.9980231337</v>
       </c>
       <c r="C28" t="n">
-        <v>180.4073954644657</v>
+        <v>1503.792905199689</v>
       </c>
       <c r="D28" t="n">
-        <v>180.4073954644657</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="E28" t="n">
-        <v>180.4073954644657</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="F28" t="n">
-        <v>180.4073954644657</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="G28" t="n">
-        <v>180.4073954644657</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="H28" t="n">
-        <v>180.4073954644657</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K28" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M28" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N28" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O28" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P28" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q28" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R28" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S28" t="n">
-        <v>745.9439088256454</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T28" t="n">
-        <v>745.9439088256454</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U28" t="n">
-        <v>745.9439088256454</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V28" t="n">
-        <v>479.9645636464696</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W28" t="n">
-        <v>196.6341615776473</v>
+        <v>2082.318103008358</v>
       </c>
       <c r="X28" t="n">
-        <v>180.4073954644657</v>
+        <v>2082.318103008358</v>
       </c>
       <c r="Y28" t="n">
-        <v>180.4073954644657</v>
+        <v>1859.206041825001</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>784.5587760470498</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="C29" t="n">
-        <v>784.5587760470498</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="D29" t="n">
-        <v>784.5587760470498</v>
+        <v>1382.347837431965</v>
       </c>
       <c r="E29" t="n">
-        <v>784.5587760470498</v>
+        <v>979.7643125485097</v>
       </c>
       <c r="F29" t="n">
-        <v>784.5587760470498</v>
+        <v>562.8698740784874</v>
       </c>
       <c r="G29" t="n">
-        <v>371.396020535053</v>
+        <v>149.7071185664906</v>
       </c>
       <c r="H29" t="n">
         <v>47.31297010154361</v>
@@ -6470,13 +6472,13 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M29" t="n">
-        <v>1212.952060406441</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N29" t="n">
-        <v>1740.763344043903</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="O29" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P29" t="n">
         <v>2180.802944936232</v>
@@ -6491,22 +6493,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T29" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U29" t="n">
-        <v>1886.395173071196</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V29" t="n">
-        <v>1544.288363774714</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W29" t="n">
-        <v>1181.049485126449</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="X29" t="n">
-        <v>1181.049485126449</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="Y29" t="n">
-        <v>784.5587760470498</v>
+        <v>1767.788966215297</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K30" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L30" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>1436.116207068686</v>
+        <v>1545.785408515687</v>
       </c>
       <c r="N30" t="n">
-        <v>2021.614212075288</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="O30" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q30" t="n">
         <v>2365.648505077179</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.5519739517948</v>
+        <v>1530.899966071083</v>
       </c>
       <c r="C31" t="n">
-        <v>763.5519739517948</v>
+        <v>1530.899966071083</v>
       </c>
       <c r="D31" t="n">
-        <v>714.3085921423267</v>
+        <v>1530.899966071083</v>
       </c>
       <c r="E31" t="n">
-        <v>558.7497800015292</v>
+        <v>1530.899966071083</v>
       </c>
       <c r="F31" t="n">
-        <v>401.4238452145021</v>
+        <v>1530.899966071083</v>
       </c>
       <c r="G31" t="n">
-        <v>233.1697913139477</v>
+        <v>1530.899966071083</v>
       </c>
       <c r="H31" t="n">
-        <v>77.69124027544166</v>
+        <v>1530.899966071083</v>
       </c>
       <c r="I31" t="n">
-        <v>77.69124027544166</v>
+        <v>1494.579752709526</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K31" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M31" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N31" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O31" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P31" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q31" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R31" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S31" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T31" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U31" t="n">
-        <v>948.7599926430961</v>
+        <v>2080.209713319081</v>
       </c>
       <c r="V31" t="n">
-        <v>948.7599926430961</v>
+        <v>1814.230368139906</v>
       </c>
       <c r="W31" t="n">
-        <v>948.7599926430961</v>
+        <v>1530.899966071083</v>
       </c>
       <c r="X31" t="n">
-        <v>948.7599926430961</v>
+        <v>1530.899966071083</v>
       </c>
       <c r="Y31" t="n">
-        <v>948.7599926430961</v>
+        <v>1530.899966071083</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.31297010154361</v>
+        <v>1568.663050286385</v>
       </c>
       <c r="C32" t="n">
-        <v>47.31297010154361</v>
+        <v>1175.487548789315</v>
       </c>
       <c r="D32" t="n">
-        <v>47.31297010154361</v>
+        <v>790.0464200059828</v>
       </c>
       <c r="E32" t="n">
-        <v>47.31297010154361</v>
+        <v>387.4628951225273</v>
       </c>
       <c r="F32" t="n">
         <v>47.31297010154361</v>
@@ -6698,22 +6700,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>358.4764287842802</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L32" t="n">
-        <v>851.7967205028091</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M32" t="n">
-        <v>1397.79762054739</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N32" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P32" t="n">
         <v>2365.64850507718</v>
@@ -6728,22 +6730,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T32" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U32" t="n">
-        <v>1886.395173071196</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V32" t="n">
-        <v>1544.288363774714</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W32" t="n">
-        <v>1173.289328743002</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X32" t="n">
-        <v>783.8367236760583</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y32" t="n">
-        <v>387.3460145966595</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F33" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K33" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L33" t="n">
-        <v>530.879055999857</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M33" t="n">
         <v>1116.377061006459</v>
       </c>
       <c r="N33" t="n">
-        <v>1614.763130931309</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O33" t="n">
-        <v>2131.28341352229</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P33" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6822,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="C34" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="D34" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="E34" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="F34" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="G34" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H34" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I34" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J34" t="n">
         <v>47.31297010154361</v>
@@ -6880,28 +6882,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S34" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T34" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U34" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="V34" t="n">
-        <v>682.7806474639203</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="W34" t="n">
-        <v>399.450245395098</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="X34" t="n">
-        <v>165.3699231780811</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>440.488471598613</v>
+        <v>1594.154724334071</v>
       </c>
       <c r="C35" t="n">
-        <v>47.31297010154361</v>
+        <v>1200.979222837001</v>
       </c>
       <c r="D35" t="n">
-        <v>47.31297010154361</v>
+        <v>1200.979222837001</v>
       </c>
       <c r="E35" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F35" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G35" t="n">
         <v>47.31297010154361</v>
@@ -6938,19 +6940,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K35" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L35" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M35" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N35" t="n">
-        <v>1925.608904184852</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.64850507718</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P35" t="n">
         <v>2365.64850507718</v>
@@ -6968,19 +6970,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U35" t="n">
-        <v>2340.032375784546</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V35" t="n">
-        <v>1997.925566488064</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W35" t="n">
-        <v>1626.926531456352</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="X35" t="n">
-        <v>1237.473926389409</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="Y35" t="n">
-        <v>840.9832173100099</v>
+        <v>1994.649470045468</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K36" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L36" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M36" t="n">
-        <v>850.6182020620834</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N36" t="n">
-        <v>1436.116207068686</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="O36" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P36" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q36" t="n">
         <v>2365.648505077179</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.2455118147037</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C37" t="n">
-        <v>244.2455118147037</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D37" t="n">
-        <v>244.2455118147037</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E37" t="n">
-        <v>88.68669967390622</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F37" t="n">
         <v>47.31297010154361</v>
@@ -7120,25 +7122,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>510.2248569938795</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U37" t="n">
-        <v>510.2248569938795</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V37" t="n">
-        <v>244.2455118147037</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W37" t="n">
-        <v>244.2455118147037</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X37" t="n">
-        <v>244.2455118147037</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y37" t="n">
-        <v>244.2455118147037</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1173.289328743002</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="C38" t="n">
-        <v>1173.289328743002</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D38" t="n">
-        <v>1173.289328743002</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E38" t="n">
-        <v>1173.289328743002</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F38" t="n">
         <v>784.5587760470498</v>
@@ -7202,22 +7204,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T38" t="n">
-        <v>2142.147902636597</v>
+        <v>2364.488379499183</v>
       </c>
       <c r="U38" t="n">
-        <v>1886.395173071196</v>
+        <v>2364.488379499183</v>
       </c>
       <c r="V38" t="n">
-        <v>1544.288363774714</v>
+        <v>2364.488379499183</v>
       </c>
       <c r="W38" t="n">
-        <v>1173.289328743002</v>
+        <v>1993.489344467471</v>
       </c>
       <c r="X38" t="n">
-        <v>1173.289328743002</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="Y38" t="n">
-        <v>1173.289328743002</v>
+        <v>1604.036739400527</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7259,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L39" t="n">
-        <v>272.5108437565964</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M39" t="n">
-        <v>858.0088487631986</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q39" t="n">
         <v>2365.648505077179</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C40" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D40" t="n">
-        <v>2233.913259765434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>2078.354447624637</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>1921.02851283761</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>1752.774458937056</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>1597.29590789855</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N40" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O40" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P40" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q40" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>2365.64850507718</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U40" t="n">
-        <v>2365.64850507718</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V40" t="n">
-        <v>2365.64850507718</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W40" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X40" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y40" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2058.57031924742</v>
+        <v>1259.966434952091</v>
       </c>
       <c r="C41" t="n">
-        <v>1665.394817750351</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="D41" t="n">
-        <v>1279.953688967018</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E41" t="n">
-        <v>877.3701640835627</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F41" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G41" t="n">
         <v>47.31297010154361</v>
@@ -7412,13 +7414,13 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K41" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L41" t="n">
-        <v>503.6092283712875</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M41" t="n">
-        <v>1049.610128415868</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N41" t="n">
         <v>1577.42141205333</v>
@@ -7445,16 +7447,16 @@
         <v>2365.64850507718</v>
       </c>
       <c r="V41" t="n">
-        <v>2058.57031924742</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W41" t="n">
-        <v>2058.57031924742</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X41" t="n">
-        <v>2058.57031924742</v>
+        <v>2056.951889742887</v>
       </c>
       <c r="Y41" t="n">
-        <v>2058.57031924742</v>
+        <v>1660.461180663488</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L42" t="n">
-        <v>272.5108437565973</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M42" t="n">
-        <v>858.0088487631995</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O42" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X42" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>356.0635742790467</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C43" t="n">
-        <v>356.0635742790467</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D43" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E43" t="n">
         <v>47.31297010154361</v>
@@ -7591,28 +7593,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R43" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>622.0429194582225</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U43" t="n">
-        <v>622.0429194582225</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V43" t="n">
-        <v>356.0635742790467</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W43" t="n">
-        <v>356.0635742790467</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X43" t="n">
-        <v>356.0635742790467</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y43" t="n">
-        <v>356.0635742790467</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>438.9025650908453</v>
+        <v>1552.59617569891</v>
       </c>
       <c r="C44" t="n">
-        <v>45.72706359377582</v>
+        <v>1159.420674201841</v>
       </c>
       <c r="D44" t="n">
-        <v>45.72706359377582</v>
+        <v>773.9795454185085</v>
       </c>
       <c r="E44" t="n">
-        <v>32.50681249897168</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F44" t="n">
-        <v>32.50681249897168</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G44" t="n">
-        <v>32.50681249897168</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
-        <v>32.50681249897168</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L44" t="n">
-        <v>434.7786171737463</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M44" t="n">
-        <v>820.7970155990351</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N44" t="n">
-        <v>1223.06882027381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>1625.340624948584</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T44" t="n">
-        <v>1625.340624948584</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U44" t="n">
-        <v>1625.340624948584</v>
+        <v>1953.090921410307</v>
       </c>
       <c r="V44" t="n">
-        <v>1625.340624948584</v>
+        <v>1953.090921410307</v>
       </c>
       <c r="W44" t="n">
-        <v>1625.340624948584</v>
+        <v>1953.090921410307</v>
       </c>
       <c r="X44" t="n">
-        <v>1235.888019881641</v>
+        <v>1953.090921410307</v>
       </c>
       <c r="Y44" t="n">
-        <v>839.3973108022421</v>
+        <v>1953.090921410307</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>319.6075338279917</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C45" t="n">
-        <v>168.953303388084</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D45" t="n">
-        <v>168.953303388084</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E45" t="n">
-        <v>32.50681249897168</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>32.50681249897168</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>32.50681249897168</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>32.50681249897168</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I45" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J45" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K45" t="n">
-        <v>32.50681249897168</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L45" t="n">
-        <v>418.5252109242605</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M45" t="n">
-        <v>820.7970155990351</v>
+        <v>952.5501211703722</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.06882027381</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O45" t="n">
-        <v>1625.340624948584</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P45" t="n">
-        <v>1625.340624948584</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q45" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>1625.340624948584</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>1625.340624948584</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>1502.745553660438</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>1292.68241033908</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>1070.142408710147</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>840.0251628434341</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>650.7180851934459</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>471.4038682689531</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
-        <v>805.7286435169739</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>969.8562833907737</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
-        <v>1156.147861729038</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>1339.337495760247</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>1502.042262801955</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>1621.918428578533</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>1625.340624948584</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>1625.340624948584</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>1625.340624948584</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>1389.621573116818</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U46" t="n">
-        <v>1104.182781358719</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V46" t="n">
-        <v>838.2034361795435</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
@@ -7991,13 +7993,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>464.6079711628815</v>
+        <v>213.6604073397399</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,7 +8066,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>454.5321323046934</v>
+        <v>577.0069902189997</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
@@ -8076,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8225,7 +8227,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>282.2547480662842</v>
+        <v>498.7523067719748</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8292,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>301.5486891608477</v>
+        <v>344.5555886567312</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8313,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,13 +8458,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>251.5450406822918</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>593.8453860234358</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
@@ -8538,19 +8540,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>663.2434089132784</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8775,19 +8777,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>663.2434089132774</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>239.189668109085</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8927,16 +8929,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>651.5514946987026</v>
+        <v>638.5768697011139</v>
       </c>
       <c r="M14" t="n">
-        <v>331.0195299270391</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -8945,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,25 +9005,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>301.5486891608486</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>401.3056843235811</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9164,10 +9166,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L17" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9176,7 +9178,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>194.0418287534719</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
         <v>502.0059847475129</v>
@@ -9249,7 +9251,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>422.8212561536983</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
         <v>676.7842391234617</v>
@@ -9258,7 +9260,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9404,13 +9406,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987026</v>
+        <v>451.8641826900545</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9477,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O21" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>287.0481265258778</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L23" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M23" t="n">
         <v>701.2411122488187</v>
@@ -9656,7 +9658,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9723,16 +9725,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9887,10 +9889,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>194.0418287534719</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P26" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
         <v>144.4986984183922</v>
@@ -9951,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>89.59693533333335</v>
@@ -9960,10 +9962,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186069</v>
+        <v>663.2434089132782</v>
       </c>
       <c r="N27" t="n">
-        <v>415.8062469585524</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10118,16 +10120,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
-        <v>466.2265087279361</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N29" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O29" t="n">
-        <v>594.0482827698827</v>
+        <v>540.4718524873235</v>
       </c>
       <c r="P29" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
         <v>331.2113854294513</v>
@@ -10188,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>680.3186616794895</v>
       </c>
       <c r="N30" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O30" t="n">
-        <v>440.1969457594865</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>311.2540453751045</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
         <v>651.5514946987026</v>
@@ -10358,13 +10360,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N32" t="n">
-        <v>682.2612020826953</v>
+        <v>644.8631884980639</v>
       </c>
       <c r="O32" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
         <v>144.4986984183922</v>
@@ -10437,16 +10439,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N33" t="n">
-        <v>588.7923855055299</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10586,7 +10588,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
         <v>651.5514946987026</v>
@@ -10595,13 +10597,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N35" t="n">
-        <v>633.9592855728719</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10662,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,19 +10673,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>500.3175139373677</v>
       </c>
       <c r="O36" t="n">
-        <v>385.1581020577837</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10905,13 +10907,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>317.5329465084867</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>179.0738312465417</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11060,16 +11062,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>251.5450406822918</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
-        <v>682.2612020826953</v>
+        <v>644.8631884980639</v>
       </c>
       <c r="O41" t="n">
         <v>594.0482827698827</v>
@@ -11142,10 +11144,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>317.5329465084869</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186069</v>
+        <v>422.8212561536975</v>
       </c>
       <c r="N42" t="n">
         <v>676.7842391234617</v>
@@ -11297,19 +11299,19 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L44" t="n">
-        <v>559.5833259676377</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>539.6426257646857</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>555.4536475749302</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>555.8989936612425</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
         <v>150.3014472409252</v>
@@ -11376,25 +11378,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>479.9779210238767</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>498.722278286458</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>491.7072690913127</v>
+        <v>344.5555886567303</v>
       </c>
       <c r="O45" t="n">
-        <v>499.0227151260349</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22550,19 +22552,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>277.2834352547399</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22595,22 +22597,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>207.9390667841954</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,22 +22710,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>240.3576544903973</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22796,10 +22798,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>65.18511085036965</v>
+        <v>14.77428983247034</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22844,13 +22846,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22999,7 +23001,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182382</v>
+        <v>87.62118754448957</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>92.48239428282</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7148318472815731</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23072,19 +23074,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -23197,10 +23199,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>108.8015838723062</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23236,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>51.3180699774835</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23303,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1823057287567735</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -23501,16 +23503,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>31.73789671649558</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23549,19 +23551,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>227.8352342700393</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>108.8015838723062</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>356.2499657818646</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>227.8352342700393</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.2400092171321</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>70.6781785340105</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
@@ -23938,10 +23940,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -23950,13 +23952,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>70.26927520960623</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>161.0346134683556</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>80.57627354479052</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>153.923765528121</v>
@@ -24178,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>66.05013652868141</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>89.77994874568586</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24257,16 +24259,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>167.7550256205289</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -24361,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>66.12369447580232</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24455,10 +24457,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>197.8937354860904</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24503,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>101.1557362472765</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>114.8812735290894</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -24619,7 +24621,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24649,7 +24651,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
         <v>233.3618613134482</v>
@@ -24658,16 +24660,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>215.675020542797</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,19 +24685,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>219.4720129488767</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24731,7 +24733,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24740,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>7.682554819612676</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>105.3258339751369</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>95.80646988135069</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59.85708420411822</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>75.97706831454815</v>
       </c>
       <c r="G32" t="n">
         <v>409.0311279568768</v>
@@ -24968,19 +24970,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25087,16 +25089,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>146.712458921458</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.004557025751</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25160,13 +25162,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>78.1847214687167</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25208,19 +25210,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>227.8352342700393</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25318,10 +25320,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>114.7926831625178</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>166.5715133615489</v>
@@ -25360,19 +25362,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25397,10 +25399,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>27.88224691632985</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25442,19 +25444,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.1170720939605</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25552,22 +25554,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>23.65888910788189</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25600,16 +25602,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -25685,16 +25687,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>34.67833723205388</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>79.948429835323</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,10 +25791,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>2.416907850171839</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25868,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>385.4696410507648</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -25880,7 +25882,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25913,13 +25915,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>230.8772103640804</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25928,10 +25930,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25947,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>53.84485310781623</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>167.3303626133477</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>643698.5231867115</v>
+        <v>643698.5231867111</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>643698.5231867115</v>
+        <v>643698.5231867111</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>643698.5231867111</v>
+        <v>643698.5231867109</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>643698.5231867115</v>
+        <v>643698.5231867109</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>643698.5231867109</v>
+        <v>643698.523186711</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>725169.2469689768</v>
+        <v>643698.5231867111</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>725169.2469689767</v>
+        <v>643698.5231867109</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>643698.5231867115</v>
+        <v>643698.5231867111</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>643698.5231867109</v>
+        <v>643698.5231867115</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>643698.5231867116</v>
+        <v>643698.5231867109</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>643698.5231867115</v>
+        <v>643698.5231867112</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>643698.5231867111</v>
+        <v>643698.5231867116</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>643698.5231867109</v>
+        <v>643698.5231867116</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>518831.3334701736</v>
+        <v>643698.5231867115</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>146808.4351127587</v>
       </c>
       <c r="C2" t="n">
-        <v>146808.4351127587</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="D2" t="n">
-        <v>146808.4351127587</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="E2" t="n">
         <v>146808.4351127587</v>
       </c>
       <c r="F2" t="n">
-        <v>146808.4351127588</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="G2" t="n">
         <v>146808.4351127587</v>
       </c>
       <c r="H2" t="n">
-        <v>165389.4773788895</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="I2" t="n">
-        <v>165389.4773788895</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="J2" t="n">
         <v>146808.4351127587</v>
@@ -26341,19 +26343,19 @@
         <v>146808.4351127587</v>
       </c>
       <c r="L2" t="n">
-        <v>146808.4351127587</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="M2" t="n">
         <v>146808.4351127587</v>
       </c>
       <c r="N2" t="n">
-        <v>146808.4351127588</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="O2" t="n">
+        <v>146808.4351127586</v>
+      </c>
+      <c r="P2" t="n">
         <v>146808.4351127587</v>
-      </c>
-      <c r="P2" t="n">
-        <v>118329.9532475834</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>106315.1556185119</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26433,31 +26435,31 @@
         <v>461.3207027394317</v>
       </c>
       <c r="H4" t="n">
-        <v>548.8206074562066</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="I4" t="n">
-        <v>548.8206074562065</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="K4" t="n">
         <v>461.3207027394316</v>
       </c>
       <c r="L4" t="n">
+        <v>461.3207027394316</v>
+      </c>
+      <c r="M4" t="n">
         <v>461.3207027394317</v>
       </c>
-      <c r="M4" t="n">
-        <v>461.3207027394316</v>
-      </c>
       <c r="N4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="O4" t="n">
         <v>461.3207027394316</v>
       </c>
       <c r="P4" t="n">
-        <v>327.2128085755303</v>
+        <v>461.3207027394316</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
         <v>35957.85727717314</v>
@@ -26509,7 +26511,7 @@
         <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>24705.17749921848</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-121434.1488588989</v>
       </c>
       <c r="C6" t="n">
-        <v>76761.65713284616</v>
+        <v>76761.65713284604</v>
       </c>
       <c r="D6" t="n">
-        <v>76761.65713284613</v>
+        <v>76761.65713284604</v>
       </c>
       <c r="E6" t="n">
         <v>110389.2571328461</v>
       </c>
       <c r="F6" t="n">
-        <v>110389.2571328462</v>
+        <v>110389.2571328461</v>
       </c>
       <c r="G6" t="n">
         <v>110389.2571328461</v>
       </c>
       <c r="H6" t="n">
-        <v>67694.68750890135</v>
+        <v>110389.2571328461</v>
       </c>
       <c r="I6" t="n">
-        <v>117630.1197163055</v>
+        <v>110389.2571328461</v>
       </c>
       <c r="J6" t="n">
-        <v>4074.101514334259</v>
+        <v>-44350.17723275735</v>
       </c>
       <c r="K6" t="n">
         <v>110389.2571328461</v>
       </c>
       <c r="L6" t="n">
-        <v>110389.2571328461</v>
+        <v>110389.257132846</v>
       </c>
       <c r="M6" t="n">
         <v>110389.2571328461</v>
       </c>
       <c r="N6" t="n">
-        <v>110389.2571328462</v>
+        <v>110389.2571328461</v>
       </c>
       <c r="O6" t="n">
+        <v>110389.257132846</v>
+      </c>
+      <c r="P6" t="n">
         <v>110389.2571328461</v>
-      </c>
-      <c r="P6" t="n">
-        <v>93297.56293978941</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
         <v>591.4121262692951</v>
@@ -26829,7 +26831,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
@@ -34711,13 +34713,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>314.3065239219563</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,7 +34786,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>362.1450102553815</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34945,7 +34947,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>133.1362567285001</v>
+        <v>349.6338154341907</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35012,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>216.176576306681</v>
+        <v>259.1834758025645</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35033,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,13 +35178,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>98.29687095180005</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>444.7268946856517</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>570.8562868639665</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>570.8562868639656</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>146.5021092201961</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,16 +35649,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>485.3286999706222</v>
       </c>
       <c r="M14" t="n">
-        <v>181.2944783293118</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35665,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>216.1765763066819</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>314.2223195042665</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35896,7 +35898,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>44.47799132937547</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35969,7 +35971,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>330.4341341043864</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
         <v>591.4121262692951</v>
@@ -35978,7 +35980,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,13 +36126,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>298.6160129595628</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O21" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>199.9647617065632</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36376,7 +36378,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>44.47799132937547</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692951</v>
+        <v>570.8562868639664</v>
       </c>
       <c r="N27" t="n">
-        <v>330.4341341043857</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,16 +36840,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>316.5014571302088</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>390.9080150632272</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,19 +36919,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>587.9315396301777</v>
       </c>
       <c r="N30" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O30" t="n">
-        <v>347.5093868705977</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>168.1956421958672</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,13 +37080,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>495.7446971602798</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37157,16 +37159,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N33" t="n">
-        <v>503.4202726513632</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37315,13 +37317,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>484.8407942350878</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,19 +37393,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>414.945401083201</v>
       </c>
       <c r="O36" t="n">
-        <v>292.4705431688948</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>227.4725996515685</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>93.701718392375</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>98.29687095180005</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449111</v>
+        <v>495.7446971602798</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
@@ -37862,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>227.4725996515686</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043856</v>
       </c>
       <c r="N42" t="n">
         <v>591.4121262692951</v>
@@ -38017,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L44" t="n">
-        <v>406.3351562371461</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>389.9175741669584</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>406.3351562371461</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>406.3351562371461</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>389.9175741669584</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>406.3351562371461</v>
+        <v>259.1834758025636</v>
       </c>
       <c r="O45" t="n">
-        <v>406.3351562371461</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>565403.1784707574</v>
+        <v>559695.0226628715</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462388</v>
+        <v>3854815.050462385</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7443165.153116481</v>
+        <v>7443165.153116483</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>134.1713099644714</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>177.6190122320783</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>144.7467681673239</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>394.2568381244065</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>248.4617241942492</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -980,7 +980,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>128.7880777047351</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>175.6983641828944</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>304.0074039714629</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>63.73400753429164</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>22.96189723698673</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>3.150906942738673</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>330.2686475180154</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -1387,10 +1387,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>260.9619194389825</v>
       </c>
     </row>
     <row r="12">
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>93.50493564739502</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>377.2932312403813</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>2.782651779052043</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>145.7406737689587</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>56.47552830345742</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>409.0311279568768</v>
@@ -1864,7 +1864,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>43.60718027270497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>83.32504548537901</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>192.863227101462</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>120.0702089684975</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>159.8076064608187</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>73.42695047459898</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>95.98918911403649</v>
       </c>
     </row>
     <row r="23">
@@ -2323,10 +2323,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>53.51057079564855</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>110.841887310193</v>
       </c>
     </row>
     <row r="24">
@@ -2481,25 +2481,25 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.5475848491760189</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>211.1373924707864</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>39.19550843742099</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>101.3702069802975</v>
+        <v>264.1403915105501</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>35.95701122794173</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>35.95701122794218</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>336.7484257707738</v>
+        <v>374.6746730530367</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3201,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>19.85905444009093</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>320.3729681659042</v>
+        <v>298.8218783245197</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3517,10 +3517,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>320.2344011398815</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.148524322216981</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>293.0683194783568</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3754,7 +3754,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>305.6096491809507</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>40.68891299310835</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -3982,19 +3982,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>305.6096491809507</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>22.31799190566698</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1252.232062238354</v>
+        <v>182.839545823232</v>
       </c>
       <c r="C2" t="n">
-        <v>1252.232062238354</v>
+        <v>182.839545823232</v>
       </c>
       <c r="D2" t="n">
-        <v>866.7909334550213</v>
+        <v>182.839545823232</v>
       </c>
       <c r="E2" t="n">
-        <v>464.2074085715658</v>
+        <v>182.839545823232</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>182.839545823232</v>
       </c>
       <c r="G2" t="n">
         <v>47.31297010154361</v>
@@ -4339,13 +4339,13 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1590.266290800943</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N2" t="n">
-        <v>2118.077574438405</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O2" t="n">
-        <v>2118.077574438405</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P2" t="n">
         <v>2180.802944936232</v>
@@ -4354,28 +4354,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2199.134950018231</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>2199.134950018231</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V2" t="n">
-        <v>2199.134950018231</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W2" t="n">
-        <v>1828.135914986518</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X2" t="n">
-        <v>1648.722771317752</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y2" t="n">
-        <v>1252.232062238354</v>
+        <v>182.839545823232</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
         <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1443.506853769802</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769802</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
         <v>47.31297010154361</v>
@@ -4518,22 +4518,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1579.705190930838</v>
+        <v>691.4599101786628</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.529689433769</v>
+        <v>298.2844086815933</v>
       </c>
       <c r="D5" t="n">
-        <v>1186.529689433769</v>
+        <v>298.2844086815933</v>
       </c>
       <c r="E5" t="n">
-        <v>1186.529689433769</v>
+        <v>298.2844086815933</v>
       </c>
       <c r="F5" t="n">
-        <v>769.6352509637464</v>
+        <v>298.2844086815933</v>
       </c>
       <c r="G5" t="n">
-        <v>371.396020535053</v>
+        <v>298.2844086815933</v>
       </c>
       <c r="H5" t="n">
         <v>47.31297010154361</v>
@@ -4570,19 +4570,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>685.2830347289006</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1231.283934773481</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1577.42141205333</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O5" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P5" t="n">
         <v>2365.64850507718</v>
@@ -4591,28 +4591,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.195900010237</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y5" t="n">
-        <v>1579.705190930838</v>
+        <v>691.4599101786628</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>367.0521161637701</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>952.5501211703722</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.141762214911</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
@@ -4685,13 +4685,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X6" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="7">
@@ -4752,16 +4752,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>510.2248569938795</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U7" t="n">
-        <v>224.7860652357804</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V7" t="n">
-        <v>47.31297010154361</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W7" t="n">
         <v>47.31297010154361</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2058.57031924742</v>
+        <v>1394.571868901601</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.394817750351</v>
+        <v>1001.396367404531</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>1001.396367404531</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>406.2953261290054</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>952.2962261735861</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2263.277805974529</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2039.777203533945</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1784.024473968544</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1784.024473968544</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1784.024473968544</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>1394.571868901601</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>1394.571868901601</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="O9" t="n">
-        <v>2218.395348604042</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4928,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.8850758683575</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C10" t="n">
-        <v>100.8850758683575</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>945.5772583575015</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>660.1384665994025</v>
       </c>
       <c r="V10" t="n">
-        <v>100.8850758683575</v>
+        <v>660.1384665994025</v>
       </c>
       <c r="W10" t="n">
-        <v>100.8850758683575</v>
+        <v>660.1384665994025</v>
       </c>
       <c r="X10" t="n">
-        <v>100.8850758683575</v>
+        <v>426.0581443823855</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.8850758683575</v>
+        <v>202.9460831990289</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1937.641433863169</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="C11" t="n">
-        <v>1937.641433863169</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="D11" t="n">
-        <v>1604.036739400527</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.453214517072</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F11" t="n">
-        <v>784.5587760470498</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G11" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I11" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M11" t="n">
-        <v>1049.610128415868</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N11" t="n">
-        <v>1577.42141205333</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O11" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P11" t="n">
         <v>2365.64850507718</v>
@@ -5074,19 +5074,19 @@
         <v>1937.641433863169</v>
       </c>
       <c r="U11" t="n">
-        <v>1937.641433863169</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V11" t="n">
-        <v>1937.641433863169</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W11" t="n">
-        <v>1937.641433863169</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X11" t="n">
-        <v>1937.641433863169</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y11" t="n">
-        <v>1937.641433863169</v>
+        <v>1418.290805874553</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F12" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K12" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L12" t="n">
-        <v>643.9940382195844</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M12" t="n">
-        <v>1229.492043226187</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.990048232789</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5165,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>480.2215718829725</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>310.0164539489617</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>310.0164539489617</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
         <v>47.31297010154361</v>
@@ -5238,13 +5238,13 @@
         <v>948.7599926430961</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>665.4295905742738</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1965.153759365783</v>
+        <v>1389.648255560643</v>
       </c>
       <c r="C14" t="n">
-        <v>1571.978257868714</v>
+        <v>1389.648255560643</v>
       </c>
       <c r="D14" t="n">
-        <v>1571.978257868714</v>
+        <v>1004.207126777311</v>
       </c>
       <c r="E14" t="n">
-        <v>1169.394732985258</v>
+        <v>601.6236018938555</v>
       </c>
       <c r="F14" t="n">
-        <v>752.5002945152361</v>
+        <v>601.6236018938555</v>
       </c>
       <c r="G14" t="n">
-        <v>371.396020535053</v>
+        <v>188.4608463818586</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I14" t="n">
         <v>47.31297010154361</v>
@@ -5284,16 +5284,16 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>1031.420512008749</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>1577.42141205333</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N14" t="n">
-        <v>1577.42141205333</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O14" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P14" t="n">
         <v>2365.64850507718</v>
@@ -5302,28 +5302,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>1790.14300127204</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.64850507718</v>
+        <v>1790.14300127204</v>
       </c>
       <c r="Y14" t="n">
-        <v>2365.64850507718</v>
+        <v>1790.14300127204</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L15" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M15" t="n">
-        <v>952.5501211703722</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.048126176974</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O15" t="n">
-        <v>2054.568408767956</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q15" t="n">
         <v>2365.648505077179</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
         <v>47.31297010154361</v>
@@ -5463,25 +5463,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>598.7311070388184</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>313.2923152807194</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2161.142036303753</v>
+        <v>828.606432888166</v>
       </c>
       <c r="C17" t="n">
-        <v>1767.966534806683</v>
+        <v>828.606432888166</v>
       </c>
       <c r="D17" t="n">
-        <v>1382.525406023351</v>
+        <v>828.606432888166</v>
       </c>
       <c r="E17" t="n">
-        <v>979.9418811398955</v>
+        <v>828.606432888166</v>
       </c>
       <c r="F17" t="n">
-        <v>922.895892954585</v>
+        <v>828.606432888166</v>
       </c>
       <c r="G17" t="n">
-        <v>509.7331374425881</v>
+        <v>415.4436773761691</v>
       </c>
       <c r="H17" t="n">
-        <v>185.6500870090788</v>
+        <v>91.36062694265974</v>
       </c>
       <c r="I17" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M17" t="n">
-        <v>1049.610128415868</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N17" t="n">
-        <v>1577.42141205333</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O17" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P17" t="n">
         <v>2365.64850507718</v>
@@ -5542,25 +5542,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T17" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U17" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V17" t="n">
-        <v>2161.142036303753</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="W17" t="n">
-        <v>2161.142036303753</v>
+        <v>1614.549747034508</v>
       </c>
       <c r="X17" t="n">
-        <v>2161.142036303753</v>
+        <v>1225.097141967565</v>
       </c>
       <c r="Y17" t="n">
-        <v>2161.142036303753</v>
+        <v>828.606432888166</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N18" t="n">
-        <v>1701.875066013061</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O18" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5639,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>287.1127958105228</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="C19" t="n">
-        <v>287.1127958105228</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="D19" t="n">
-        <v>131.4796827130376</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F19" t="n">
         <v>47.31297010154361</v>
@@ -5700,25 +5700,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>510.2248569938795</v>
+        <v>753.9486521365689</v>
       </c>
       <c r="U19" t="n">
-        <v>510.2248569938795</v>
+        <v>753.9486521365689</v>
       </c>
       <c r="V19" t="n">
-        <v>510.2248569938795</v>
+        <v>487.969306957393</v>
       </c>
       <c r="W19" t="n">
-        <v>510.2248569938795</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="X19" t="n">
-        <v>510.2248569938795</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="Y19" t="n">
-        <v>287.1127958105228</v>
+        <v>204.6389048885707</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1965.153759365783</v>
+        <v>947.2126397440641</v>
       </c>
       <c r="C20" t="n">
-        <v>1965.153759365783</v>
+        <v>554.0371382469946</v>
       </c>
       <c r="D20" t="n">
-        <v>1579.712630582451</v>
+        <v>168.5960094636623</v>
       </c>
       <c r="E20" t="n">
-        <v>1177.129105698996</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F20" t="n">
-        <v>760.2346672289733</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G20" t="n">
-        <v>347.0719117169764</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
         <v>47.31297010154361</v>
@@ -5758,46 +5758,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>846.5749518678007</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1392.575851912381</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N20" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O20" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P20" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q20" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U20" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V20" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W20" t="n">
-        <v>2365.64850507718</v>
+        <v>1733.155953890406</v>
       </c>
       <c r="X20" t="n">
-        <v>2365.64850507718</v>
+        <v>1343.703348823463</v>
       </c>
       <c r="Y20" t="n">
-        <v>2365.64850507718</v>
+        <v>947.2126397440641</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>480.1670983834975</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L21" t="n">
-        <v>480.1670983834975</v>
+        <v>160.427952321271</v>
       </c>
       <c r="M21" t="n">
-        <v>1065.6651033901</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N21" t="n">
-        <v>1651.163108396702</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O21" t="n">
-        <v>2167.683390987683</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
@@ -5876,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>447.0615956321544</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>447.0615956321544</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>447.0615956321544</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>372.8929587891251</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
         <v>47.31297010154361</v>
@@ -5943,19 +5943,19 @@
         <v>713.0409408113302</v>
       </c>
       <c r="U22" t="n">
-        <v>713.0409408113302</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V22" t="n">
-        <v>447.0615956321544</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W22" t="n">
-        <v>447.0615956321544</v>
+        <v>144.2717469844088</v>
       </c>
       <c r="X22" t="n">
-        <v>447.0615956321544</v>
+        <v>144.2717469844088</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.0615956321544</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1969.490614168933</v>
+        <v>857.3829100686353</v>
       </c>
       <c r="C23" t="n">
-        <v>1576.315112671863</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="D23" t="n">
-        <v>1190.873983888531</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E23" t="n">
-        <v>788.2904590050753</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F23" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G23" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H23" t="n">
         <v>47.31297010154361</v>
@@ -5992,49 +5992,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K23" t="n">
-        <v>47.31297010154361</v>
+        <v>353.2546601492718</v>
       </c>
       <c r="L23" t="n">
-        <v>503.6092283712875</v>
+        <v>846.5749518678007</v>
       </c>
       <c r="M23" t="n">
-        <v>1049.610128415868</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N23" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O23" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q23" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T23" t="n">
-        <v>2311.597423465414</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U23" t="n">
-        <v>2311.597423465414</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V23" t="n">
-        <v>1969.490614168933</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="W23" t="n">
-        <v>1969.490614168933</v>
+        <v>1358.797017469107</v>
       </c>
       <c r="X23" t="n">
-        <v>1969.490614168933</v>
+        <v>969.3444124021636</v>
       </c>
       <c r="Y23" t="n">
-        <v>1969.490614168933</v>
+        <v>857.3829100686353</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L24" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M24" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N24" t="n">
-        <v>1701.875066013061</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O24" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P24" t="n">
         <v>2365.648505077179</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
         <v>47.31297010154361</v>
@@ -6177,22 +6177,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U25" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V25" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>977.8416154369572</v>
+        <v>1340.343447433876</v>
       </c>
       <c r="C26" t="n">
-        <v>584.6661139398877</v>
+        <v>1340.343447433876</v>
       </c>
       <c r="D26" t="n">
-        <v>584.6661139398877</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="E26" t="n">
-        <v>584.6661139398877</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F26" t="n">
-        <v>584.6661139398877</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G26" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I26" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O26" t="n">
         <v>2365.64850507718</v>
@@ -6250,28 +6250,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U26" t="n">
-        <v>2109.895775511779</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V26" t="n">
-        <v>1767.788966215297</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="W26" t="n">
-        <v>1767.788966215297</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="X26" t="n">
-        <v>1378.336361148354</v>
+        <v>1340.343447433876</v>
       </c>
       <c r="Y26" t="n">
-        <v>1378.336361148354</v>
+        <v>1340.343447433876</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K27" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L27" t="n">
-        <v>643.9940382195844</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M27" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N27" t="n">
-        <v>1209.141762214911</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O27" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P27" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q27" t="n">
         <v>2365.64850507718</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1673.9980231337</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C28" t="n">
-        <v>1503.792905199689</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N28" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P28" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>2365.64850507718</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U28" t="n">
-        <v>2365.64850507718</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V28" t="n">
-        <v>2365.64850507718</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W28" t="n">
-        <v>2082.318103008358</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X28" t="n">
-        <v>2082.318103008358</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y28" t="n">
-        <v>1859.206041825001</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1767.788966215297</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="C29" t="n">
-        <v>1767.788966215297</v>
+        <v>869.353001752384</v>
       </c>
       <c r="D29" t="n">
-        <v>1382.347837431965</v>
+        <v>869.353001752384</v>
       </c>
       <c r="E29" t="n">
-        <v>979.7643125485097</v>
+        <v>869.353001752384</v>
       </c>
       <c r="F29" t="n">
-        <v>562.8698740784874</v>
+        <v>452.4585632823618</v>
       </c>
       <c r="G29" t="n">
-        <v>149.7071185664906</v>
+        <v>452.4585632823618</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I29" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L29" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M29" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N29" t="n">
-        <v>1445.616517892115</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O29" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P29" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q29" t="n">
         <v>2365.64850507718</v>
@@ -6490,25 +6490,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U29" t="n">
-        <v>2109.895775511779</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V29" t="n">
-        <v>1767.788966215297</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W29" t="n">
-        <v>1767.788966215297</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="X29" t="n">
-        <v>1767.788966215297</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="Y29" t="n">
-        <v>1767.788966215297</v>
+        <v>1262.528503249453</v>
       </c>
     </row>
     <row r="30">
@@ -6551,16 +6551,16 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>1545.785408515687</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N30" t="n">
-        <v>2131.283413522289</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O30" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P30" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q30" t="n">
         <v>2365.648505077179</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1530.899966071083</v>
+        <v>114.011453636999</v>
       </c>
       <c r="C31" t="n">
-        <v>1530.899966071083</v>
+        <v>114.011453636999</v>
       </c>
       <c r="D31" t="n">
-        <v>1530.899966071083</v>
+        <v>114.011453636999</v>
       </c>
       <c r="E31" t="n">
-        <v>1530.899966071083</v>
+        <v>114.011453636999</v>
       </c>
       <c r="F31" t="n">
-        <v>1530.899966071083</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G31" t="n">
-        <v>1530.899966071083</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H31" t="n">
-        <v>1530.899966071083</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I31" t="n">
-        <v>1494.579752709526</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>2080.209713319081</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V31" t="n">
-        <v>1814.230368139906</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W31" t="n">
-        <v>1530.899966071083</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X31" t="n">
-        <v>1530.899966071083</v>
+        <v>114.011453636999</v>
       </c>
       <c r="Y31" t="n">
-        <v>1530.899966071083</v>
+        <v>114.011453636999</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1568.663050286385</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="C32" t="n">
-        <v>1175.487548789315</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="D32" t="n">
-        <v>790.0464200059828</v>
+        <v>749.8552862451911</v>
       </c>
       <c r="E32" t="n">
-        <v>387.4628951225273</v>
+        <v>749.8552862451911</v>
       </c>
       <c r="F32" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
         <v>47.31297010154361</v>
@@ -6703,13 +6703,13 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L32" t="n">
-        <v>540.6332618200724</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M32" t="n">
-        <v>1086.634161864653</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N32" t="n">
         <v>1577.42141205333</v>
@@ -6724,28 +6724,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V32" t="n">
-        <v>2365.64850507718</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W32" t="n">
-        <v>2365.64850507718</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="X32" t="n">
-        <v>2365.64850507718</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="Y32" t="n">
-        <v>1969.157795997781</v>
+        <v>1135.296415028523</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K33" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L33" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M33" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N33" t="n">
-        <v>1701.875066013061</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O33" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P33" t="n">
         <v>2365.648505077179</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C34" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
         <v>47.31297010154361</v>
@@ -6882,28 +6882,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T34" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U34" t="n">
-        <v>386.3238676264566</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V34" t="n">
-        <v>386.3238676264566</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W34" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X34" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y34" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1594.154724334071</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="C35" t="n">
-        <v>1200.979222837001</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="D35" t="n">
-        <v>1200.979222837001</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="E35" t="n">
         <v>877.3701640835627</v>
@@ -6937,22 +6937,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L35" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M35" t="n">
-        <v>1086.634161864653</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N35" t="n">
-        <v>1614.445445502115</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O35" t="n">
-        <v>2054.485046394444</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P35" t="n">
         <v>2365.64850507718</v>
@@ -6976,13 +6976,13 @@
         <v>2365.64850507718</v>
       </c>
       <c r="W35" t="n">
-        <v>1994.649470045468</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X35" t="n">
-        <v>1994.649470045468</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y35" t="n">
-        <v>1994.649470045468</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="36">
@@ -7028,10 +7028,10 @@
         <v>1549.231189288413</v>
       </c>
       <c r="N36" t="n">
-        <v>1960.027136360782</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P36" t="n">
         <v>2365.648505077179</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1604.036739400527</v>
+        <v>1575.70115429884</v>
       </c>
       <c r="C38" t="n">
-        <v>1604.036739400527</v>
+        <v>1575.70115429884</v>
       </c>
       <c r="D38" t="n">
-        <v>1604.036739400527</v>
+        <v>1190.260025515508</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.453214517072</v>
+        <v>787.6765006320522</v>
       </c>
       <c r="F38" t="n">
-        <v>784.5587760470498</v>
+        <v>370.78206216203</v>
       </c>
       <c r="G38" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H38" t="n">
         <v>47.31297010154361</v>
@@ -7204,22 +7204,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T38" t="n">
-        <v>2364.488379499183</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U38" t="n">
-        <v>2364.488379499183</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V38" t="n">
-        <v>2364.488379499183</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W38" t="n">
-        <v>1993.489344467471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X38" t="n">
-        <v>1604.036739400527</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y38" t="n">
-        <v>1604.036739400527</v>
+        <v>1976.195900010237</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K39" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L39" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N39" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O39" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P39" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q39" t="n">
         <v>2365.648505077179</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1259.966434952091</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C41" t="n">
-        <v>866.7909334550213</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D41" t="n">
-        <v>866.7909334550213</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E41" t="n">
-        <v>464.2074085715658</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F41" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G41" t="n">
         <v>47.31297010154361</v>
@@ -7414,13 +7414,13 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K41" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L41" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M41" t="n">
-        <v>1086.634161864653</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N41" t="n">
         <v>1577.42141205333</v>
@@ -7453,10 +7453,10 @@
         <v>2365.64850507718</v>
       </c>
       <c r="X41" t="n">
-        <v>2056.951889742887</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y41" t="n">
-        <v>1660.461180663488</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L42" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>858.0088487631986</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.506853769801</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O42" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P42" t="n">
         <v>2365.648505077179</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154361</v>
+        <v>358.3503332808472</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154361</v>
+        <v>358.3503332808472</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154361</v>
+        <v>358.3503332808472</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H43" t="n">
         <v>47.31297010154361</v>
@@ -7599,22 +7599,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>882.0615091076409</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>596.6227173495417</v>
+        <v>907.6600805288452</v>
       </c>
       <c r="V43" t="n">
-        <v>330.643372170366</v>
+        <v>641.6807353496695</v>
       </c>
       <c r="W43" t="n">
-        <v>47.31297010154361</v>
+        <v>358.3503332808472</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154361</v>
+        <v>358.3503332808472</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154361</v>
+        <v>358.3503332808472</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1552.59617569891</v>
+        <v>1568.663050286385</v>
       </c>
       <c r="C44" t="n">
-        <v>1159.420674201841</v>
+        <v>1175.487548789315</v>
       </c>
       <c r="D44" t="n">
-        <v>773.9795454185085</v>
+        <v>1175.487548789315</v>
       </c>
       <c r="E44" t="n">
-        <v>371.396020535053</v>
+        <v>772.9040239058595</v>
       </c>
       <c r="F44" t="n">
-        <v>371.396020535053</v>
+        <v>356.0095854358373</v>
       </c>
       <c r="G44" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H44" t="n">
         <v>47.31297010154361</v>
@@ -7651,19 +7651,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L44" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M44" t="n">
-        <v>1397.79762054739</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N44" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O44" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P44" t="n">
         <v>2365.64850507718</v>
@@ -7675,25 +7675,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T44" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U44" t="n">
-        <v>1953.090921410307</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V44" t="n">
-        <v>1953.090921410307</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W44" t="n">
-        <v>1953.090921410307</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X44" t="n">
-        <v>1953.090921410307</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y44" t="n">
-        <v>1953.090921410307</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K45" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L45" t="n">
-        <v>367.0521161637701</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>952.5501211703722</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="N45" t="n">
-        <v>1209.14176221491</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q45" t="n">
         <v>2365.648505077179</v>
@@ -7987,16 +7987,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>320.115627001847</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>213.6604073397399</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8066,19 +8066,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>577.0069902189997</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>673.3036524843452</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8218,7 +8218,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8227,13 +8227,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>498.7523067719748</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>344.5555886567312</v>
+        <v>500.3175139373686</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>593.8453860234358</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,10 +8531,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8543,16 +8543,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>673.3036524843443</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>235.8239269133934</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>251.5450406822918</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8704,10 +8704,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
         <v>144.4986984183922</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
@@ -8780,16 +8780,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>179.0738312465417</v>
       </c>
       <c r="O12" t="n">
-        <v>239.189668109085</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8932,19 +8932,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>638.5768697011139</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
         <v>144.4986984183922</v>
@@ -9008,13 +9008,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>674.5394322581649</v>
       </c>
       <c r="N15" t="n">
         <v>676.7842391234617</v>
@@ -9023,10 +9023,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>401.3056843235811</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9178,10 +9178,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9242,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9257,10 +9257,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P18" t="n">
-        <v>235.8239269133934</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9406,22 +9406,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>451.8641826900545</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9482,13 +9482,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186069</v>
+        <v>560.2818744604604</v>
       </c>
       <c r="N21" t="n">
         <v>676.7842391234617</v>
@@ -9497,10 +9497,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>287.0481265258778</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9640,16 +9640,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
-        <v>143.0584031792374</v>
+        <v>452.0904133284578</v>
       </c>
       <c r="L23" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N23" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O23" t="n">
         <v>594.0482827698827</v>
@@ -9658,7 +9658,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9731,10 +9731,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P24" t="n">
-        <v>235.8239269133925</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
         <v>505.666843611017</v>
@@ -9886,10 +9886,10 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N26" t="n">
-        <v>682.2612020826953</v>
+        <v>487.848403846783</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9956,25 +9956,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>663.2434089132782</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
@@ -10123,16 +10123,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N29" t="n">
-        <v>149.1184913377841</v>
+        <v>487.848403846783</v>
       </c>
       <c r="O29" t="n">
-        <v>540.4718524873235</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10199,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>680.3186616794895</v>
+        <v>395.3134182086912</v>
       </c>
       <c r="N30" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10351,16 +10351,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>651.5514946987026</v>
+        <v>251.5450406822918</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N32" t="n">
-        <v>644.8631884980639</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
         <v>594.0482827698827</v>
@@ -10427,10 +10427,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10442,10 +10442,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P33" t="n">
-        <v>235.8239269133925</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
         <v>651.5514946987026</v>
@@ -10600,10 +10600,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P35" t="n">
-        <v>464.6079711628815</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10676,13 +10676,13 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N36" t="n">
-        <v>500.3175139373677</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10901,10 +10901,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10913,16 +10913,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
-        <v>179.0738312465417</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11062,7 +11062,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
         <v>651.5514946987026</v>
@@ -11071,7 +11071,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
-        <v>644.8631884980639</v>
+        <v>282.2547480662842</v>
       </c>
       <c r="O41" t="n">
         <v>594.0482827698827</v>
@@ -11138,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>422.8212561536975</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N42" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11299,7 +11299,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
         <v>651.5514946987026</v>
@@ -11308,13 +11308,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>682.2612020826953</v>
+        <v>282.2547480662842</v>
       </c>
       <c r="O44" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
         <v>144.4986984183922</v>
@@ -11375,19 +11375,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>577.0069902189988</v>
       </c>
       <c r="N45" t="n">
-        <v>344.5555886567303</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11396,7 +11396,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22552,16 +22552,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>274.8598179924054</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>207.9390667841954</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22758,19 +22758,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>135.7503298808102</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22795,13 +22795,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>14.77428983247034</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>72.38049573492503</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22992,19 +22992,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>87.62118754448957</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.48239428282</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>101.1144119740683</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -23086,7 +23086,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -23184,7 +23184,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -23199,10 +23199,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>108.8015838723062</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.2109543707095</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23263,7 +23263,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>51.3180699774835</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23326,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>131.5638825496223</v>
       </c>
     </row>
     <row r="12">
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>60.49828837199449</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>31.73789671649558</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>318.0595681501222</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>221.2655964161775</v>
@@ -23557,7 +23557,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>87.62118754448952</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23734,16 +23734,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>356.2499657818646</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>93.34656546575485</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
         <v>221.2655964161775</v>
@@ -23791,16 +23791,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,13 +23895,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>70.6781785340105</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.5715133615489</v>
@@ -23940,25 +23940,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>40.49863421198623</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>278.4874806661234</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>161.0346134683556</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
@@ -24031,13 +24031,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,13 +24135,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>80.57627354479052</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
         <v>153.923765528121</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>124.8917514574866</v>
       </c>
     </row>
     <row r="23">
@@ -24211,10 +24211,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>167.7550256205289</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>281.6839146784118</v>
       </c>
     </row>
     <row r="24">
@@ -24369,25 +24369,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>381.0391326463229</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>197.8937354860904</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>114.8812735290894</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -24654,13 +24654,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>219.4720129488767</v>
+        <v>56.70182841862413</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -24849,7 +24849,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>119.795664211215</v>
       </c>
       <c r="G31" t="n">
         <v>166.5715133615489</v>
@@ -24858,7 +24858,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>95.80646988135069</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>75.97706831454815</v>
+        <v>38.05082103228528</v>
       </c>
       <c r="G32" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25089,16 +25089,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>146.712458921458</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>78.1847214687167</v>
+        <v>99.73581131010116</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>88.79672681699532</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25444,7 +25444,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>220.1170720939605</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
@@ -25453,7 +25453,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>103.4214787759261</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -25693,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>79.948429835323</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25803,7 +25803,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>131.7634811092929</v>
@@ -25839,10 +25839,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>241.8954908474097</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>103.4214787759261</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25915,13 +25915,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>230.8772103640804</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25933,7 +25933,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>643698.5231867111</v>
+        <v>643698.5231867116</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>643698.5231867115</v>
+        <v>643698.5231867116</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>643698.5231867111</v>
+        <v>643698.523186711</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>643698.5231867109</v>
+        <v>643698.5231867111</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>643698.523186711</v>
+        <v>643698.5231867115</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>643698.5231867111</v>
+        <v>643698.5231867116</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>643698.5231867109</v>
+        <v>643698.5231867116</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>643698.5231867111</v>
+        <v>643698.5231867116</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>643698.5231867115</v>
+        <v>643698.5231867116</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>643698.5231867109</v>
+        <v>643698.5231867116</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>643698.5231867112</v>
+        <v>643698.5231867115</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>643698.5231867116</v>
+        <v>643698.5231867112</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>643698.5231867116</v>
+        <v>643698.523186711</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>643698.5231867115</v>
+        <v>643698.5231867112</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>146808.4351127587</v>
       </c>
       <c r="C2" t="n">
+        <v>146808.4351127587</v>
+      </c>
+      <c r="D2" t="n">
+        <v>146808.4351127587</v>
+      </c>
+      <c r="E2" t="n">
         <v>146808.4351127586</v>
-      </c>
-      <c r="D2" t="n">
-        <v>146808.4351127586</v>
-      </c>
-      <c r="E2" t="n">
-        <v>146808.4351127587</v>
       </c>
       <c r="F2" t="n">
         <v>146808.4351127587</v>
       </c>
       <c r="G2" t="n">
-        <v>146808.4351127587</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="H2" t="n">
         <v>146808.4351127587</v>
@@ -26343,7 +26343,7 @@
         <v>146808.4351127587</v>
       </c>
       <c r="L2" t="n">
-        <v>146808.4351127586</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="M2" t="n">
         <v>146808.4351127587</v>
@@ -26352,7 +26352,7 @@
         <v>146808.4351127587</v>
       </c>
       <c r="O2" t="n">
-        <v>146808.4351127586</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="P2" t="n">
         <v>146808.4351127587</v>
@@ -26420,13 +26420,13 @@
         <v>461.3207027394317</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="D4" t="n">
         <v>461.3207027394317</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394316</v>
       </c>
       <c r="F4" t="n">
         <v>461.3207027394316</v>
@@ -26435,10 +26435,10 @@
         <v>461.3207027394317</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394316</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394316</v>
       </c>
       <c r="J4" t="n">
         <v>461.3207027394317</v>
@@ -26447,7 +26447,7 @@
         <v>461.3207027394316</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="M4" t="n">
         <v>461.3207027394317</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-121434.1488588989</v>
+        <v>-122108.1749851189</v>
       </c>
       <c r="C6" t="n">
-        <v>76761.65713284604</v>
+        <v>76087.63100662603</v>
       </c>
       <c r="D6" t="n">
-        <v>76761.65713284604</v>
+        <v>76087.63100662603</v>
       </c>
       <c r="E6" t="n">
-        <v>110389.2571328461</v>
+        <v>109715.231006626</v>
       </c>
       <c r="F6" t="n">
-        <v>110389.2571328461</v>
+        <v>109715.231006626</v>
       </c>
       <c r="G6" t="n">
-        <v>110389.2571328461</v>
+        <v>109715.231006626</v>
       </c>
       <c r="H6" t="n">
-        <v>110389.2571328461</v>
+        <v>109715.231006626</v>
       </c>
       <c r="I6" t="n">
-        <v>110389.2571328461</v>
+        <v>109715.2310066261</v>
       </c>
       <c r="J6" t="n">
-        <v>-44350.17723275735</v>
+        <v>-45024.20335897739</v>
       </c>
       <c r="K6" t="n">
-        <v>110389.2571328461</v>
+        <v>109715.231006626</v>
       </c>
       <c r="L6" t="n">
-        <v>110389.257132846</v>
+        <v>109715.2310066261</v>
       </c>
       <c r="M6" t="n">
-        <v>110389.2571328461</v>
+        <v>109715.231006626</v>
       </c>
       <c r="N6" t="n">
-        <v>110389.2571328461</v>
+        <v>109715.231006626</v>
       </c>
       <c r="O6" t="n">
-        <v>110389.257132846</v>
+        <v>109715.2310066261</v>
       </c>
       <c r="P6" t="n">
-        <v>110389.2571328461</v>
+        <v>109715.2310066261</v>
       </c>
     </row>
   </sheetData>
@@ -34707,16 +34707,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>170.3905754041197</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>63.35896009881473</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34786,19 +34786,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6198681696878</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>587.9315396301786</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34947,13 +34947,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>349.6338154341907</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>259.1834758025645</v>
+        <v>414.9454010832019</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>444.7268946856517</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35263,16 +35263,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>587.9315396301777</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>148.7405620940788</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>98.29687095180005</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35424,10 +35424,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>93.701718392375</v>
       </c>
       <c r="O12" t="n">
-        <v>146.5021092201961</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>485.3286999706222</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>582.152310208853</v>
       </c>
       <c r="N15" t="n">
         <v>591.4121262692951</v>
@@ -35743,10 +35743,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>314.2223195042665</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35898,10 +35898,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35977,10 +35977,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P18" t="n">
-        <v>148.7405620940788</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36126,22 +36126,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>298.6160129595628</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692951</v>
+        <v>467.8947524111485</v>
       </c>
       <c r="N21" t="n">
         <v>591.4121262692951</v>
@@ -36217,10 +36217,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>199.9647617065632</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>309.0320101492204</v>
       </c>
       <c r="L23" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>444.4844453457863</v>
@@ -36378,7 +36378,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36451,10 +36451,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P24" t="n">
-        <v>148.7405620940779</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36606,10 +36606,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>570.8562868639664</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36843,16 +36843,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="O29" t="n">
-        <v>390.9080150632272</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>587.9315396301777</v>
+        <v>302.9262961593793</v>
       </c>
       <c r="N30" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>98.29687095180005</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>495.7446971602798</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37162,10 +37162,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P33" t="n">
-        <v>148.7405620940779</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37320,10 +37320,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P35" t="n">
-        <v>314.3065239219563</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N36" t="n">
-        <v>414.945401083201</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37633,16 +37633,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
-        <v>93.701718392375</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
         <v>498.303324968211</v>
@@ -37791,7 +37791,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>495.7446971602798</v>
+        <v>133.1362567285001</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>330.4341341043856</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N42" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
         <v>498.303324968211</v>
@@ -38028,13 +38028,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>133.1362567285001</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>484.6198681696869</v>
       </c>
       <c r="N45" t="n">
-        <v>259.1834758025636</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38116,7 +38116,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
